--- a/public/HOOPBATTLETOKYO2019.xlsx
+++ b/public/HOOPBATTLETOKYO2019.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adachishioka/Desktop/スポーツ事業/HOOP BATTLE/2019年代々木予選/提出書類/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DBC832-2908-FC4A-9461-E43BEDE52F74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7DA8D1-56FC-7443-9743-EF6759F304AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="参加申込書" sheetId="1" r:id="rId1"/>
+    <sheet name="保護者同意書（高校生用）" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -253,6 +252,121 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t xml:space="preserve">カマエイマセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同　　意　　書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+HOOPBATTLE TOKYO実行委員　宛
+下記の者について、HOOPBATTLE TOKYO 2019予選への出場を承諾致します。
+事故等の発生については、大会主催者・運営者へ一切責任を問いません。
+住　　所：
+電　　話：
+/ふりがな
+氏　　名：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">生年月日：	西暦　　　 　　年　　　　月　　　日	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メンバーＩＤ番号：　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="ＭＳ Ｐゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">保護者氏名：　　　　　　　　　　　　		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>印</t>
+    </r>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ジッコウイン </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">イイン </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">アテ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">トウキョウヨセン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +436,28 @@
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック (本文)"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック (本文)"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -433,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +618,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,6 +670,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -873,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -889,113 +1034,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="45" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="45" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="45" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="45" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="31.5" customHeight="1"/>
     <row r="10" spans="1:12" ht="38.25" customHeight="1">
@@ -1003,10 +1148,10 @@
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1176,8 @@
         <v>1</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,8 +1192,8 @@
         <v>2</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1063,8 +1208,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1079,8 +1224,8 @@
         <v>4</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1097,8 +1242,8 @@
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1115,8 +1260,8 @@
       <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1131,61 +1276,61 @@
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="30.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="30.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="30.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="37.5" customHeight="1"/>
     <row r="23" spans="1:10" ht="37.5" customHeight="1"/>
@@ -1228,26 +1373,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="96.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="34" customHeight="1">
+      <c r="B1" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="35"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="35"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="35"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="35"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="35"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="35"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="35"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="35"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="35"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="35"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="35"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B36"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
